--- a/muestras/3/workbook.xlsx
+++ b/muestras/3/workbook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="2175" yWindow="240" windowWidth="20730" windowHeight="11520" tabRatio="734" firstSheet="10" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Criterios" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="ProyVsIE" sheetId="3" r:id="rId18"/>
     <sheet name="ProyVsGI" sheetId="21" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,8 +164,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +197,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -549,7 +574,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -641,173 +666,224 @@
     <xf numFmtId="12" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="12" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="141">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1135,22 +1211,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="3" width="6.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="3" width="6.125" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
     <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1160,14 +1236,14 @@
       <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="54" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1184,7 +1260,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1200,7 +1276,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1213,18 +1289,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1251,19 +1327,19 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="A5:F6"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1283,7 +1359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1303,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1321,7 +1397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1330,14 +1406,14 @@
       <c r="D4" s="18">
         <v>1</v>
       </c>
-      <c r="E4" s="24">
-        <v>7</v>
+      <c r="E4" s="55">
+        <v>0.14285714285714285</v>
       </c>
       <c r="F4" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1351,8 +1427,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="19"/>
@@ -1382,16 +1458,16 @@
       <selection activeCell="F6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1411,7 +1487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1431,7 +1507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1449,7 +1525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1465,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1479,8 +1555,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="19"/>
@@ -1510,16 +1586,16 @@
       <selection activeCell="F6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1539,7 +1615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1559,7 +1635,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1577,7 +1653,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1593,7 +1669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1607,8 +1683,8 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="19"/>
@@ -1638,16 +1714,16 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1667,7 +1743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1687,7 +1763,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1705,7 +1781,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1721,7 +1797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1735,8 +1811,8 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="19"/>
@@ -1760,25 +1836,28 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F6" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
+    <col min="15" max="15" width="7.875" customWidth="1"/>
+    <col min="16" max="16" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1798,7 +1877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1812,13 +1891,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1836,7 +1915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1852,7 +1931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1863,11 +1942,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="24">
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="35" t="s">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="19"/>
@@ -1897,18 +1976,18 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
+    <col min="11" max="11" width="7.875" customWidth="1"/>
     <col min="12" max="13" width="6.5" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
     <col min="15" max="15" width="7.5" customWidth="1"/>
     <col min="16" max="16" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -1928,7 +2007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1948,7 +2027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1966,7 +2045,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1982,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1996,8 +2075,8 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="19"/>
@@ -2008,28 +2087,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
     </row>
   </sheetData>
@@ -2048,22 +2127,22 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" customWidth="1"/>
+    <col min="13" max="13" width="7.375" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
+    <col min="15" max="15" width="7.875" customWidth="1"/>
     <col min="16" max="16" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -2083,7 +2162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -2103,7 +2182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2121,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -2137,7 +2216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -2147,12 +2226,12 @@
       <c r="E5" s="28">
         <v>1</v>
       </c>
-      <c r="F5" s="24">
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="35" t="s">
+      <c r="F5" s="50">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="19"/>
@@ -2163,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2184,7 +2263,7 @@
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2224,19 +2303,19 @@
       <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" customWidth="1"/>
-    <col min="16" max="16" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="7.875" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
+    <col min="15" max="15" width="9.125" customWidth="1"/>
+    <col min="16" max="16" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -2256,7 +2335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -2276,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2294,7 +2373,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -2310,7 +2389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -2324,8 +2403,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="19"/>
@@ -2336,31 +2415,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2380,7 +2459,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2400,7 +2479,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2420,7 +2499,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2453,30 +2532,30 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
-    <col min="8" max="9" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="9" width="7.375" customWidth="1"/>
     <col min="10" max="10" width="6.5" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
     <col min="12" max="12" width="7.5" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" customWidth="1"/>
+    <col min="13" max="13" width="8.875" customWidth="1"/>
+    <col min="14" max="14" width="7.875" customWidth="1"/>
+    <col min="15" max="15" width="8.875" customWidth="1"/>
     <col min="16" max="16" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
@@ -2496,7 +2575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -2506,8 +2585,8 @@
       <c r="C2" s="21">
         <v>0.14285714285714285</v>
       </c>
-      <c r="D2" s="21">
-        <v>0.14285714285714285</v>
+      <c r="D2" s="51">
+        <v>0.33333333333333331</v>
       </c>
       <c r="E2" s="22">
         <v>3</v>
@@ -2516,7 +2595,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2534,7 +2613,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -2550,7 +2629,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -2564,8 +2643,8 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="19"/>
@@ -2575,35 +2654,36 @@
       <c r="F6" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H6" s="52"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
     </row>
   </sheetData>
@@ -2621,19 +2701,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="6" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
@@ -2653,7 +2733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -2673,7 +2753,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2691,7 +2771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -2707,7 +2787,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -2721,8 +2801,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="23"/>
@@ -2733,51 +2813,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
     </row>
@@ -2796,21 +2876,21 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="7.875" customWidth="1"/>
     <col min="3" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="9" width="5.83203125" customWidth="1"/>
+    <col min="5" max="9" width="5.875" customWidth="1"/>
     <col min="11" max="11" width="6.5" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="7.1640625" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -2824,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -2834,11 +2914,11 @@
       <c r="C2" s="12">
         <v>5</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="38">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2846,21 +2926,21 @@
       <c r="C3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D3" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2882,20 +2962,20 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A5:E5"/>
+      <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" customWidth="1"/>
-    <col min="13" max="13" width="6.1640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
+    <col min="11" max="11" width="5.125" customWidth="1"/>
+    <col min="12" max="12" width="4.875" customWidth="1"/>
+    <col min="13" max="13" width="6.125" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2912,7 +2992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -2929,7 +3009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2944,7 +3024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -2957,8 +3037,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19"/>
@@ -2968,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2994,16 +3074,16 @@
       <selection activeCell="E5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -3020,7 +3100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -3037,7 +3117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -3052,7 +3132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -3065,8 +3145,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="19"/>
@@ -3092,19 +3172,19 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A4:D4"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -3118,7 +3198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -3132,7 +3212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3144,17 +3224,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3176,24 +3256,24 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="4" width="5.83203125" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="4" width="5.875" customWidth="1"/>
+    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="5.875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="6.875" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
+    <col min="15" max="15" width="8.375" customWidth="1"/>
     <col min="16" max="16" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -3213,7 +3293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -3233,7 +3313,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3251,7 +3331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -3267,7 +3347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -3281,8 +3361,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="19"/>
@@ -3309,19 +3389,19 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3341,7 +3421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -3351,17 +3431,17 @@
       <c r="C2" s="21">
         <v>0.14285714285714285</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="40">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E2" s="22">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F2" s="22">
+      <c r="E2" s="48">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F2" s="41">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3369,48 +3449,48 @@
       <c r="C3" s="18">
         <v>1</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="42">
         <v>5</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="46">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F3" s="24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="18">
-        <v>1</v>
-      </c>
-      <c r="E4" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="24">
+      <c r="D4" s="43">
+        <v>1</v>
+      </c>
+      <c r="E4" s="46">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F4" s="46">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28">
-        <v>1</v>
-      </c>
-      <c r="F5" s="29">
+      <c r="D5" s="44"/>
+      <c r="E5" s="45">
+        <v>1</v>
+      </c>
+      <c r="F5" s="47">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="19"/>
@@ -3437,19 +3517,19 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3469,7 +3549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -3489,7 +3569,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3507,7 +3587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -3523,7 +3603,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -3537,8 +3617,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="19"/>
@@ -3565,19 +3645,19 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -3597,7 +3677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -3617,7 +3697,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3635,7 +3715,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -3651,7 +3731,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -3665,8 +3745,8 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="19"/>
@@ -3677,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
